--- a/2022/Samsung/MARCH/02.03.2022/SAMSUNG Bank Statement March-2022.xlsx
+++ b/2022/Samsung/MARCH/02.03.2022/SAMSUNG Bank Statement March-2022.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -571,6 +571,9 @@
   <si>
     <t>N.B: 10 Lac Taka Cash Hanover to A.M Tipu Boss. Capital (-) 10Lac.</t>
   </si>
+  <si>
+    <t>Mugdho Corporation-3</t>
+  </si>
 </sst>
 </file>
 
@@ -579,7 +582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -867,6 +870,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2795,6 +2804,12 @@
     <xf numFmtId="1" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2903,15 +2918,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2921,20 +2927,23 @@
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="34" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3393,33 +3402,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="323"/>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
+      <c r="A1" s="325"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="324"/>
-      <c r="B2" s="321" t="s">
+      <c r="A2" s="326"/>
+      <c r="B2" s="323" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="324"/>
-      <c r="B3" s="322" t="s">
+      <c r="A3" s="326"/>
+      <c r="B3" s="324" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="324"/>
+      <c r="A4" s="326"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3437,7 +3446,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="324"/>
+      <c r="A5" s="326"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3455,7 +3464,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="324"/>
+      <c r="A6" s="326"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3467,7 +3476,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="324"/>
+      <c r="A7" s="326"/>
       <c r="B7" s="26" t="s">
         <v>44</v>
       </c>
@@ -3486,7 +3495,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="324"/>
+      <c r="A8" s="326"/>
       <c r="B8" s="26" t="s">
         <v>45</v>
       </c>
@@ -3505,7 +3514,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="324"/>
+      <c r="A9" s="326"/>
       <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
@@ -3524,7 +3533,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="324"/>
+      <c r="A10" s="326"/>
       <c r="B10" s="26" t="s">
         <v>48</v>
       </c>
@@ -3543,7 +3552,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="324"/>
+      <c r="A11" s="326"/>
       <c r="B11" s="26" t="s">
         <v>49</v>
       </c>
@@ -3562,7 +3571,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="324"/>
+      <c r="A12" s="326"/>
       <c r="B12" s="26" t="s">
         <v>50</v>
       </c>
@@ -3581,7 +3590,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="324"/>
+      <c r="A13" s="326"/>
       <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
@@ -3600,7 +3609,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="324"/>
+      <c r="A14" s="326"/>
       <c r="B14" s="26" t="s">
         <v>52</v>
       </c>
@@ -3619,7 +3628,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="324"/>
+      <c r="A15" s="326"/>
       <c r="B15" s="26" t="s">
         <v>53</v>
       </c>
@@ -3638,7 +3647,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="324"/>
+      <c r="A16" s="326"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3651,7 +3660,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="324"/>
+      <c r="A17" s="326"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3664,7 +3673,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="324"/>
+      <c r="A18" s="326"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3677,7 +3686,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="324"/>
+      <c r="A19" s="326"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3690,7 +3699,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="324"/>
+      <c r="A20" s="326"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3703,7 +3712,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="324"/>
+      <c r="A21" s="326"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3716,7 +3725,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="324"/>
+      <c r="A22" s="326"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3729,7 +3738,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="324"/>
+      <c r="A23" s="326"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3742,7 +3751,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="324"/>
+      <c r="A24" s="326"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3755,7 +3764,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="324"/>
+      <c r="A25" s="326"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3768,7 +3777,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="324"/>
+      <c r="A26" s="326"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3781,7 +3790,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="324"/>
+      <c r="A27" s="326"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -3794,7 +3803,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="324"/>
+      <c r="A28" s="326"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -3807,7 +3816,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="324"/>
+      <c r="A29" s="326"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -3820,7 +3829,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="324"/>
+      <c r="A30" s="326"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -3833,7 +3842,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="324"/>
+      <c r="A31" s="326"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -3846,7 +3855,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="324"/>
+      <c r="A32" s="326"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -3859,7 +3868,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="324"/>
+      <c r="A33" s="326"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -3872,7 +3881,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="324"/>
+      <c r="A34" s="326"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -3885,7 +3894,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="324"/>
+      <c r="A35" s="326"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -3898,7 +3907,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="324"/>
+      <c r="A36" s="326"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -3911,7 +3920,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="324"/>
+      <c r="A37" s="326"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3924,7 +3933,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="324"/>
+      <c r="A38" s="326"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -3937,7 +3946,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="324"/>
+      <c r="A39" s="326"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -3950,7 +3959,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="324"/>
+      <c r="A40" s="326"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -3963,7 +3972,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="324"/>
+      <c r="A41" s="326"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -3976,7 +3985,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="324"/>
+      <c r="A42" s="326"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -3989,7 +3998,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="324"/>
+      <c r="A43" s="326"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4002,7 +4011,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="324"/>
+      <c r="A44" s="326"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4015,7 +4024,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="324"/>
+      <c r="A45" s="326"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4028,7 +4037,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="324"/>
+      <c r="A46" s="326"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4041,7 +4050,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="324"/>
+      <c r="A47" s="326"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4054,7 +4063,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="324"/>
+      <c r="A48" s="326"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4067,7 +4076,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="324"/>
+      <c r="A49" s="326"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4080,7 +4089,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="324"/>
+      <c r="A50" s="326"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4093,7 +4102,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="324"/>
+      <c r="A51" s="326"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4106,7 +4115,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="324"/>
+      <c r="A52" s="326"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4119,7 +4128,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="324"/>
+      <c r="A53" s="326"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4132,7 +4141,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="324"/>
+      <c r="A54" s="326"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4145,7 +4154,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="324"/>
+      <c r="A55" s="326"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4157,7 +4166,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="324"/>
+      <c r="A56" s="326"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4169,7 +4178,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="324"/>
+      <c r="A57" s="326"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4181,7 +4190,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="324"/>
+      <c r="A58" s="326"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4193,7 +4202,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="324"/>
+      <c r="A59" s="326"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4205,7 +4214,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="324"/>
+      <c r="A60" s="326"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4217,7 +4226,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="324"/>
+      <c r="A61" s="326"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4229,7 +4238,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="324"/>
+      <c r="A62" s="326"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4241,7 +4250,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="324"/>
+      <c r="A63" s="326"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4253,7 +4262,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="324"/>
+      <c r="A64" s="326"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4265,7 +4274,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="324"/>
+      <c r="A65" s="326"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4277,7 +4286,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="324"/>
+      <c r="A66" s="326"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4289,7 +4298,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="324"/>
+      <c r="A67" s="326"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4301,7 +4310,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="324"/>
+      <c r="A68" s="326"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4313,7 +4322,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="324"/>
+      <c r="A69" s="326"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4325,7 +4334,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="324"/>
+      <c r="A70" s="326"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4337,7 +4346,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="324"/>
+      <c r="A71" s="326"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4349,7 +4358,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="324"/>
+      <c r="A72" s="326"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4361,7 +4370,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="324"/>
+      <c r="A73" s="326"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4373,7 +4382,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="324"/>
+      <c r="A74" s="326"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4385,7 +4394,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="324"/>
+      <c r="A75" s="326"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4397,7 +4406,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="324"/>
+      <c r="A76" s="326"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4409,7 +4418,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="324"/>
+      <c r="A77" s="326"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4421,7 +4430,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="324"/>
+      <c r="A78" s="326"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4433,7 +4442,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="324"/>
+      <c r="A79" s="326"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4445,7 +4454,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="324"/>
+      <c r="A80" s="326"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4457,7 +4466,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="324"/>
+      <c r="A81" s="326"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4469,7 +4478,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="324"/>
+      <c r="A82" s="326"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4481,7 +4490,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="324"/>
+      <c r="A83" s="326"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5118,33 +5127,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="323"/>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
+      <c r="A1" s="325"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="324"/>
-      <c r="B2" s="321" t="s">
+      <c r="A2" s="326"/>
+      <c r="B2" s="323" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="324"/>
-      <c r="B3" s="322" t="s">
+      <c r="A3" s="326"/>
+      <c r="B3" s="324" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="324"/>
+      <c r="A4" s="326"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5162,7 +5171,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="324"/>
+      <c r="A5" s="326"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5180,7 +5189,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="324"/>
+      <c r="A6" s="326"/>
       <c r="B6" s="26"/>
       <c r="C6" s="247"/>
       <c r="D6" s="247"/>
@@ -5192,7 +5201,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="324"/>
+      <c r="A7" s="326"/>
       <c r="B7" s="26" t="s">
         <v>143</v>
       </c>
@@ -5210,7 +5219,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="324"/>
+      <c r="A8" s="326"/>
       <c r="B8" s="26" t="s">
         <v>154</v>
       </c>
@@ -5230,7 +5239,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="324"/>
+      <c r="A9" s="326"/>
       <c r="B9" s="26"/>
       <c r="C9" s="316"/>
       <c r="D9" s="316"/>
@@ -5242,7 +5251,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="324"/>
+      <c r="A10" s="326"/>
       <c r="B10" s="26"/>
       <c r="C10" s="249"/>
       <c r="D10" s="249"/>
@@ -5254,7 +5263,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="324"/>
+      <c r="A11" s="326"/>
       <c r="B11" s="26"/>
       <c r="C11" s="247"/>
       <c r="D11" s="247"/>
@@ -5266,7 +5275,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="324"/>
+      <c r="A12" s="326"/>
       <c r="B12" s="26"/>
       <c r="C12" s="247"/>
       <c r="D12" s="247"/>
@@ -5278,7 +5287,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="324"/>
+      <c r="A13" s="326"/>
       <c r="B13" s="26"/>
       <c r="C13" s="247"/>
       <c r="D13" s="247"/>
@@ -5290,7 +5299,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="324"/>
+      <c r="A14" s="326"/>
       <c r="B14" s="26"/>
       <c r="C14" s="247"/>
       <c r="D14" s="247"/>
@@ -5302,7 +5311,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="324"/>
+      <c r="A15" s="326"/>
       <c r="B15" s="26"/>
       <c r="C15" s="247"/>
       <c r="D15" s="247"/>
@@ -5314,7 +5323,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="324"/>
+      <c r="A16" s="326"/>
       <c r="B16" s="26"/>
       <c r="C16" s="247"/>
       <c r="D16" s="247"/>
@@ -5326,7 +5335,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="324"/>
+      <c r="A17" s="326"/>
       <c r="B17" s="26"/>
       <c r="C17" s="247"/>
       <c r="D17" s="247"/>
@@ -5338,7 +5347,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="324"/>
+      <c r="A18" s="326"/>
       <c r="B18" s="26"/>
       <c r="C18" s="247"/>
       <c r="D18" s="247"/>
@@ -5350,7 +5359,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="324"/>
+      <c r="A19" s="326"/>
       <c r="B19" s="26"/>
       <c r="C19" s="247"/>
       <c r="D19" s="249"/>
@@ -5362,7 +5371,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="324"/>
+      <c r="A20" s="326"/>
       <c r="B20" s="26"/>
       <c r="C20" s="247"/>
       <c r="D20" s="247"/>
@@ -5374,7 +5383,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="324"/>
+      <c r="A21" s="326"/>
       <c r="B21" s="26"/>
       <c r="C21" s="247"/>
       <c r="D21" s="247"/>
@@ -5386,7 +5395,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="324"/>
+      <c r="A22" s="326"/>
       <c r="B22" s="26"/>
       <c r="C22" s="247"/>
       <c r="D22" s="247"/>
@@ -5398,7 +5407,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="324"/>
+      <c r="A23" s="326"/>
       <c r="B23" s="26"/>
       <c r="C23" s="247"/>
       <c r="D23" s="247"/>
@@ -5410,7 +5419,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="324"/>
+      <c r="A24" s="326"/>
       <c r="B24" s="26"/>
       <c r="C24" s="247"/>
       <c r="D24" s="247"/>
@@ -5422,7 +5431,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="324"/>
+      <c r="A25" s="326"/>
       <c r="B25" s="26"/>
       <c r="C25" s="247"/>
       <c r="D25" s="247"/>
@@ -5434,7 +5443,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="324"/>
+      <c r="A26" s="326"/>
       <c r="B26" s="26"/>
       <c r="C26" s="247"/>
       <c r="D26" s="247"/>
@@ -5446,7 +5455,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="324"/>
+      <c r="A27" s="326"/>
       <c r="B27" s="26"/>
       <c r="C27" s="247"/>
       <c r="D27" s="247"/>
@@ -5458,7 +5467,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="324"/>
+      <c r="A28" s="326"/>
       <c r="B28" s="26"/>
       <c r="C28" s="247"/>
       <c r="D28" s="247"/>
@@ -5470,7 +5479,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="324"/>
+      <c r="A29" s="326"/>
       <c r="B29" s="26"/>
       <c r="C29" s="247"/>
       <c r="D29" s="247"/>
@@ -5482,7 +5491,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="324"/>
+      <c r="A30" s="326"/>
       <c r="B30" s="26"/>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -5494,7 +5503,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="324"/>
+      <c r="A31" s="326"/>
       <c r="B31" s="26"/>
       <c r="C31" s="247"/>
       <c r="D31" s="247"/>
@@ -5506,7 +5515,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="324"/>
+      <c r="A32" s="326"/>
       <c r="B32" s="26"/>
       <c r="C32" s="247"/>
       <c r="D32" s="247"/>
@@ -5518,7 +5527,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="324"/>
+      <c r="A33" s="326"/>
       <c r="B33" s="26"/>
       <c r="C33" s="247"/>
       <c r="D33" s="249"/>
@@ -5530,7 +5539,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="324"/>
+      <c r="A34" s="326"/>
       <c r="B34" s="26"/>
       <c r="C34" s="247"/>
       <c r="D34" s="247"/>
@@ -5542,7 +5551,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="324"/>
+      <c r="A35" s="326"/>
       <c r="B35" s="26"/>
       <c r="C35" s="247"/>
       <c r="D35" s="247"/>
@@ -5554,7 +5563,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="324"/>
+      <c r="A36" s="326"/>
       <c r="B36" s="26"/>
       <c r="C36" s="247"/>
       <c r="D36" s="247"/>
@@ -5566,7 +5575,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="324"/>
+      <c r="A37" s="326"/>
       <c r="B37" s="26"/>
       <c r="C37" s="247"/>
       <c r="D37" s="247"/>
@@ -5578,7 +5587,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="324"/>
+      <c r="A38" s="326"/>
       <c r="B38" s="26"/>
       <c r="C38" s="247"/>
       <c r="D38" s="247"/>
@@ -5590,7 +5599,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="324"/>
+      <c r="A39" s="326"/>
       <c r="B39" s="26"/>
       <c r="C39" s="247"/>
       <c r="D39" s="247"/>
@@ -5602,7 +5611,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="324"/>
+      <c r="A40" s="326"/>
       <c r="B40" s="26"/>
       <c r="C40" s="247"/>
       <c r="D40" s="247"/>
@@ -5614,7 +5623,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="324"/>
+      <c r="A41" s="326"/>
       <c r="B41" s="26"/>
       <c r="C41" s="247"/>
       <c r="D41" s="247"/>
@@ -5626,7 +5635,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="324"/>
+      <c r="A42" s="326"/>
       <c r="B42" s="26"/>
       <c r="C42" s="247"/>
       <c r="D42" s="247"/>
@@ -5638,7 +5647,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="324"/>
+      <c r="A43" s="326"/>
       <c r="B43" s="26"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
@@ -5650,7 +5659,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="324"/>
+      <c r="A44" s="326"/>
       <c r="B44" s="26"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
@@ -5662,7 +5671,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="324"/>
+      <c r="A45" s="326"/>
       <c r="B45" s="26"/>
       <c r="C45" s="247"/>
       <c r="D45" s="247"/>
@@ -5674,7 +5683,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="324"/>
+      <c r="A46" s="326"/>
       <c r="B46" s="26"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
@@ -5686,7 +5695,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="324"/>
+      <c r="A47" s="326"/>
       <c r="B47" s="26"/>
       <c r="C47" s="247"/>
       <c r="D47" s="247"/>
@@ -5698,7 +5707,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="324"/>
+      <c r="A48" s="326"/>
       <c r="B48" s="26"/>
       <c r="C48" s="247"/>
       <c r="D48" s="247"/>
@@ -5710,7 +5719,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="324"/>
+      <c r="A49" s="326"/>
       <c r="B49" s="26"/>
       <c r="C49" s="247"/>
       <c r="D49" s="247"/>
@@ -5722,7 +5731,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="324"/>
+      <c r="A50" s="326"/>
       <c r="B50" s="26"/>
       <c r="C50" s="247"/>
       <c r="D50" s="247"/>
@@ -5734,7 +5743,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="324"/>
+      <c r="A51" s="326"/>
       <c r="B51" s="26"/>
       <c r="C51" s="247"/>
       <c r="D51" s="247"/>
@@ -5746,7 +5755,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="324"/>
+      <c r="A52" s="326"/>
       <c r="B52" s="26"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
@@ -5758,7 +5767,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="324"/>
+      <c r="A53" s="326"/>
       <c r="B53" s="26"/>
       <c r="C53" s="247"/>
       <c r="D53" s="247"/>
@@ -5770,7 +5779,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="324"/>
+      <c r="A54" s="326"/>
       <c r="B54" s="26"/>
       <c r="C54" s="247"/>
       <c r="D54" s="247"/>
@@ -5782,7 +5791,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="324"/>
+      <c r="A55" s="326"/>
       <c r="B55" s="26"/>
       <c r="C55" s="247"/>
       <c r="D55" s="247"/>
@@ -5793,7 +5802,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="324"/>
+      <c r="A56" s="326"/>
       <c r="B56" s="26"/>
       <c r="C56" s="247"/>
       <c r="D56" s="247"/>
@@ -5804,7 +5813,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="324"/>
+      <c r="A57" s="326"/>
       <c r="B57" s="26"/>
       <c r="C57" s="247"/>
       <c r="D57" s="247"/>
@@ -5815,7 +5824,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="324"/>
+      <c r="A58" s="326"/>
       <c r="B58" s="26"/>
       <c r="C58" s="247"/>
       <c r="D58" s="247"/>
@@ -5826,7 +5835,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="324"/>
+      <c r="A59" s="326"/>
       <c r="B59" s="26"/>
       <c r="C59" s="247"/>
       <c r="D59" s="247"/>
@@ -5837,7 +5846,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="324"/>
+      <c r="A60" s="326"/>
       <c r="B60" s="26"/>
       <c r="C60" s="247"/>
       <c r="D60" s="247"/>
@@ -5848,7 +5857,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="324"/>
+      <c r="A61" s="326"/>
       <c r="B61" s="26"/>
       <c r="C61" s="247"/>
       <c r="D61" s="247"/>
@@ -5859,7 +5868,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="324"/>
+      <c r="A62" s="326"/>
       <c r="B62" s="26"/>
       <c r="C62" s="247"/>
       <c r="D62" s="247"/>
@@ -5870,7 +5879,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="324"/>
+      <c r="A63" s="326"/>
       <c r="B63" s="26"/>
       <c r="C63" s="247"/>
       <c r="D63" s="247"/>
@@ -5881,7 +5890,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="324"/>
+      <c r="A64" s="326"/>
       <c r="B64" s="26"/>
       <c r="C64" s="247"/>
       <c r="D64" s="247"/>
@@ -5892,7 +5901,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="324"/>
+      <c r="A65" s="326"/>
       <c r="B65" s="26"/>
       <c r="C65" s="247"/>
       <c r="D65" s="247"/>
@@ -5903,7 +5912,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="324"/>
+      <c r="A66" s="326"/>
       <c r="B66" s="26"/>
       <c r="C66" s="247"/>
       <c r="D66" s="247"/>
@@ -5914,7 +5923,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="324"/>
+      <c r="A67" s="326"/>
       <c r="B67" s="26"/>
       <c r="C67" s="247"/>
       <c r="D67" s="247"/>
@@ -5925,7 +5934,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="324"/>
+      <c r="A68" s="326"/>
       <c r="B68" s="26"/>
       <c r="C68" s="247"/>
       <c r="D68" s="247"/>
@@ -5936,7 +5945,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="324"/>
+      <c r="A69" s="326"/>
       <c r="B69" s="26"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
@@ -5947,7 +5956,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="324"/>
+      <c r="A70" s="326"/>
       <c r="B70" s="26"/>
       <c r="C70" s="247"/>
       <c r="D70" s="247"/>
@@ -5958,7 +5967,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="324"/>
+      <c r="A71" s="326"/>
       <c r="B71" s="26"/>
       <c r="C71" s="247"/>
       <c r="D71" s="247"/>
@@ -5969,7 +5978,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="324"/>
+      <c r="A72" s="326"/>
       <c r="B72" s="26"/>
       <c r="C72" s="247"/>
       <c r="D72" s="247"/>
@@ -5980,7 +5989,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="324"/>
+      <c r="A73" s="326"/>
       <c r="B73" s="26"/>
       <c r="C73" s="247"/>
       <c r="D73" s="247"/>
@@ -5991,7 +6000,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="324"/>
+      <c r="A74" s="326"/>
       <c r="B74" s="26"/>
       <c r="C74" s="247"/>
       <c r="D74" s="247"/>
@@ -6002,7 +6011,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="324"/>
+      <c r="A75" s="326"/>
       <c r="B75" s="26"/>
       <c r="C75" s="247"/>
       <c r="D75" s="247"/>
@@ -6013,7 +6022,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="324"/>
+      <c r="A76" s="326"/>
       <c r="B76" s="26"/>
       <c r="C76" s="247"/>
       <c r="D76" s="247"/>
@@ -6024,7 +6033,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="324"/>
+      <c r="A77" s="326"/>
       <c r="B77" s="26"/>
       <c r="C77" s="247"/>
       <c r="D77" s="247"/>
@@ -6035,7 +6044,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="324"/>
+      <c r="A78" s="326"/>
       <c r="B78" s="26"/>
       <c r="C78" s="247"/>
       <c r="D78" s="247"/>
@@ -6046,7 +6055,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="324"/>
+      <c r="A79" s="326"/>
       <c r="B79" s="26"/>
       <c r="C79" s="247"/>
       <c r="D79" s="247"/>
@@ -6058,7 +6067,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="324"/>
+      <c r="A80" s="326"/>
       <c r="B80" s="26"/>
       <c r="C80" s="247"/>
       <c r="D80" s="247"/>
@@ -6070,7 +6079,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="324"/>
+      <c r="A81" s="326"/>
       <c r="B81" s="26"/>
       <c r="C81" s="247"/>
       <c r="D81" s="247"/>
@@ -6082,7 +6091,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="324"/>
+      <c r="A82" s="326"/>
       <c r="B82" s="26"/>
       <c r="C82" s="247"/>
       <c r="D82" s="247"/>
@@ -6094,7 +6103,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="324"/>
+      <c r="A83" s="326"/>
       <c r="B83" s="31"/>
       <c r="C83" s="248">
         <f>SUM(C5:C72)</f>
@@ -6149,67 +6158,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="329" t="s">
+      <c r="A1" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="329"/>
-      <c r="E1" s="329"/>
-      <c r="F1" s="329"/>
-      <c r="G1" s="329"/>
-      <c r="H1" s="329"/>
-      <c r="I1" s="329"/>
-      <c r="J1" s="329"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="329"/>
-      <c r="O1" s="329"/>
-      <c r="P1" s="329"/>
-      <c r="Q1" s="329"/>
+      <c r="B1" s="331"/>
+      <c r="C1" s="331"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
+      <c r="N1" s="331"/>
+      <c r="O1" s="331"/>
+      <c r="P1" s="331"/>
+      <c r="Q1" s="331"/>
     </row>
     <row r="2" spans="1:24" s="64" customFormat="1" ht="18">
-      <c r="A2" s="330" t="s">
+      <c r="A2" s="332" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="330"/>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="330"/>
-      <c r="F2" s="330"/>
-      <c r="G2" s="330"/>
-      <c r="H2" s="330"/>
-      <c r="I2" s="330"/>
-      <c r="J2" s="330"/>
-      <c r="K2" s="330"/>
-      <c r="L2" s="330"/>
-      <c r="M2" s="330"/>
-      <c r="N2" s="330"/>
-      <c r="O2" s="330"/>
-      <c r="P2" s="330"/>
-      <c r="Q2" s="330"/>
+      <c r="B2" s="332"/>
+      <c r="C2" s="332"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="332"/>
+      <c r="F2" s="332"/>
+      <c r="G2" s="332"/>
+      <c r="H2" s="332"/>
+      <c r="I2" s="332"/>
+      <c r="J2" s="332"/>
+      <c r="K2" s="332"/>
+      <c r="L2" s="332"/>
+      <c r="M2" s="332"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="332"/>
+      <c r="Q2" s="332"/>
     </row>
     <row r="3" spans="1:24" s="65" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="331" t="s">
+      <c r="A3" s="333" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="332"/>
-      <c r="C3" s="332"/>
-      <c r="D3" s="332"/>
-      <c r="E3" s="332"/>
-      <c r="F3" s="332"/>
-      <c r="G3" s="332"/>
-      <c r="H3" s="332"/>
-      <c r="I3" s="332"/>
-      <c r="J3" s="332"/>
-      <c r="K3" s="332"/>
-      <c r="L3" s="332"/>
-      <c r="M3" s="332"/>
-      <c r="N3" s="332"/>
-      <c r="O3" s="332"/>
-      <c r="P3" s="332"/>
-      <c r="Q3" s="333"/>
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="335"/>
       <c r="S3" s="49"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6218,52 +6227,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="66" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="334" t="s">
+      <c r="A4" s="336" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="336" t="s">
+      <c r="B4" s="338" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="325" t="s">
+      <c r="C4" s="327" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="325" t="s">
+      <c r="D4" s="327" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="327" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="325" t="s">
+      <c r="F4" s="327" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="325" t="s">
+      <c r="G4" s="327" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="325" t="s">
+      <c r="H4" s="327" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="325" t="s">
+      <c r="I4" s="327" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="325" t="s">
+      <c r="J4" s="327" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="325" t="s">
+      <c r="K4" s="327" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="325" t="s">
+      <c r="L4" s="327" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="325" t="s">
+      <c r="M4" s="327" t="s">
         <v>135</v>
       </c>
-      <c r="N4" s="325" t="s">
+      <c r="N4" s="327" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="327" t="s">
+      <c r="O4" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="338" t="s">
+      <c r="P4" s="340" t="s">
         <v>54</v>
       </c>
       <c r="Q4" s="124" t="s">
@@ -6276,22 +6285,22 @@
       <c r="W4" s="68"/>
     </row>
     <row r="5" spans="1:24" s="66" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="335"/>
-      <c r="B5" s="337"/>
-      <c r="C5" s="326"/>
-      <c r="D5" s="326"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="326"/>
-      <c r="G5" s="326"/>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="326"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="326"/>
-      <c r="N5" s="326"/>
-      <c r="O5" s="328"/>
-      <c r="P5" s="339"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="339"/>
+      <c r="C5" s="328"/>
+      <c r="D5" s="328"/>
+      <c r="E5" s="328"/>
+      <c r="F5" s="328"/>
+      <c r="G5" s="328"/>
+      <c r="H5" s="328"/>
+      <c r="I5" s="328"/>
+      <c r="J5" s="328"/>
+      <c r="K5" s="328"/>
+      <c r="L5" s="328"/>
+      <c r="M5" s="328"/>
+      <c r="N5" s="328"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="341"/>
       <c r="Q5" s="125" t="s">
         <v>40</v>
       </c>
@@ -9199,11 +9208,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9218,6 +9222,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9258,15 +9267,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
       <c r="H1" s="59"/>
       <c r="I1" s="141"/>
       <c r="J1" s="141"/>
@@ -9359,15 +9368,15 @@
       <c r="CS1" s="136"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="348" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
       <c r="H2" s="59"/>
       <c r="I2" s="141"/>
       <c r="J2" s="141"/>
@@ -9460,15 +9469,15 @@
       <c r="CS2" s="136"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="347" t="s">
+      <c r="A3" s="349" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
+      <c r="B3" s="349"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="349"/>
       <c r="H3" s="59"/>
       <c r="I3" s="141"/>
       <c r="J3" s="141"/>
@@ -12768,12 +12777,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="131"/>
-      <c r="B35" s="342" t="s">
+      <c r="B35" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="342"/>
-      <c r="D35" s="342"/>
-      <c r="E35" s="342"/>
+      <c r="C35" s="344"/>
+      <c r="D35" s="344"/>
+      <c r="E35" s="344"/>
       <c r="F35" s="132"/>
       <c r="G35" s="137"/>
       <c r="H35" s="137"/>
@@ -13604,10 +13613,10 @@
       <c r="D43" s="206"/>
       <c r="E43" s="174"/>
       <c r="F43" s="132"/>
-      <c r="G43" s="343"/>
-      <c r="H43" s="343"/>
-      <c r="I43" s="343"/>
-      <c r="J43" s="343"/>
+      <c r="G43" s="345"/>
+      <c r="H43" s="345"/>
+      <c r="I43" s="345"/>
+      <c r="J43" s="345"/>
       <c r="K43" s="59"/>
       <c r="L43" s="141"/>
       <c r="M43" s="59"/>
@@ -21673,11 +21682,11 @@
       <c r="CS118" s="136"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="340" t="s">
+      <c r="A119" s="342" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="341"/>
-      <c r="C119" s="344"/>
+      <c r="B119" s="343"/>
+      <c r="C119" s="346"/>
       <c r="D119" s="210">
         <f>SUM(D37:D118)</f>
         <v>2883360</v>
@@ -21880,11 +21889,11 @@
       <c r="CS120" s="136"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="340" t="s">
+      <c r="A121" s="342" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="341"/>
-      <c r="C121" s="341"/>
+      <c r="B121" s="343"/>
+      <c r="C121" s="343"/>
       <c r="D121" s="210">
         <f>D119+M121</f>
         <v>2883360</v>
@@ -33118,8 +33127,8 @@
   </sheetPr>
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33135,35 +33144,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="348" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="350"/>
+      <c r="A1" s="350" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="352"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:17" ht="21.75">
-      <c r="A2" s="357" t="s">
+    <row r="2" spans="1:17" ht="20.25">
+      <c r="A2" s="365" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="359"/>
+      <c r="B2" s="366"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="367"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="353" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="352"/>
-      <c r="C3" s="352"/>
-      <c r="D3" s="352"/>
-      <c r="E3" s="353"/>
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="355"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33178,13 +33187,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="360" t="s">
+      <c r="A4" s="359" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="361"/>
-      <c r="C4" s="361"/>
-      <c r="D4" s="361"/>
-      <c r="E4" s="362"/>
+      <c r="B4" s="360"/>
+      <c r="C4" s="360"/>
+      <c r="D4" s="360"/>
+      <c r="E4" s="361"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -33210,7 +33219,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="276">
-        <v>10307660</v>
+        <v>10282820</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="262"/>
@@ -33230,7 +33239,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="302">
-        <v>21040</v>
+        <v>21660</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="40" t="s">
@@ -33260,7 +33269,7 @@
         <v>73</v>
       </c>
       <c r="E7" s="278">
-        <v>453110</v>
+        <v>478570</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="255"/>
@@ -33368,12 +33377,12 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="21.75">
-      <c r="A12" s="363" t="s">
+      <c r="A12" s="321" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="364">
+      <c r="B12" s="322">
         <f>B6+B7+B8-B10-B11</f>
-        <v>18980</v>
+        <v>19600</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="40" t="s">
@@ -33468,7 +33477,7 @@
       </c>
       <c r="B16" s="245">
         <f>B5+B6+B7+B8-B10-B11-B14-B15</f>
-        <v>13818980</v>
+        <v>13819600</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41" t="s">
@@ -33476,7 +33485,7 @@
       </c>
       <c r="E16" s="281">
         <f>E5+E6+E10+E11+E12+E7+E13</f>
-        <v>13818980</v>
+        <v>13819600</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="111">
@@ -33516,13 +33525,13 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A18" s="354" t="s">
+      <c r="A18" s="356" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="355"/>
-      <c r="C18" s="355"/>
-      <c r="D18" s="355"/>
-      <c r="E18" s="356"/>
+      <c r="B18" s="357"/>
+      <c r="C18" s="357"/>
+      <c r="D18" s="357"/>
+      <c r="E18" s="358"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
@@ -33794,14 +33803,14 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="1:17" ht="24" thickBot="1">
-      <c r="A29" s="365" t="s">
+    <row r="29" spans="1:17" ht="21" thickBot="1">
+      <c r="A29" s="362" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="366"/>
-      <c r="C29" s="366"/>
-      <c r="D29" s="366"/>
-      <c r="E29" s="367"/>
+      <c r="B29" s="363"/>
+      <c r="C29" s="363"/>
+      <c r="D29" s="363"/>
+      <c r="E29" s="364"/>
       <c r="G29" s="256"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
